--- a/Caterpillars Count things to do.xlsx
+++ b/Caterpillars Count things to do.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Arthropod order naming</t>
+  </si>
+  <si>
+    <t>Getting bot garden data organized</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +533,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
